--- a/schedule_data_2019_9.xlsx
+++ b/schedule_data_2019_9.xlsx
@@ -373,22 +373,28 @@
     <t>X</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
     <t>N1</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>W6</t>
-  </si>
-  <si>
-    <t>A3</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>A5</t>
   </si>
   <si>
     <t>O</t>
@@ -397,12 +403,6 @@
     <t>OB</t>
   </si>
   <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
@@ -505,67 +505,67 @@
     <t>[]</t>
   </si>
   <si>
+    <t>['11.5', '12.5']</t>
+  </si>
+  <si>
+    <t>['12.0']</t>
+  </si>
+  <si>
+    <t>['12.5']</t>
+  </si>
+  <si>
+    <t>['12.0', '13.0']</t>
+  </si>
+  <si>
     <t>['11.5', '12.0']</t>
   </si>
   <si>
-    <t>['11.5', '12.0', '12.5', '13.5']</t>
+    <t>['11.5', '13.0']</t>
+  </si>
+  <si>
+    <t>['13.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0', '13.0']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['12.0', '12.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '13.5']</t>
   </si>
   <si>
     <t>['13.0']</t>
   </si>
   <si>
-    <t>['12.0', '13.0']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.0', '13.0']</t>
-  </si>
-  <si>
-    <t>['11.5', '13.0']</t>
-  </si>
-  <si>
-    <t>['11.5', '13.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.5']</t>
-  </si>
-  <si>
-    <t>['12.0', '12.5']</t>
-  </si>
-  <si>
-    <t>['12.5']</t>
+    <t>['11.5', '13.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['12.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0', '12.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.5', '13.0']</t>
+  </si>
+  <si>
+    <t>['12.5', '13.0']</t>
+  </si>
+  <si>
+    <t>['12.0', '13.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['11.5', '12.0', '13.0', '13.5']</t>
+  </si>
+  <si>
+    <t>['11.5']</t>
   </si>
   <si>
     <t>['13.5']</t>
-  </si>
-  <si>
-    <t>['12.0', '13.5']</t>
-  </si>
-  <si>
-    <t>['12.0']</t>
-  </si>
-  <si>
-    <t>['12.5', '13.0']</t>
-  </si>
-  <si>
-    <t>['12.5', '13.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.0', '13.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.0', '12.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.5', '13.5']</t>
-  </si>
-  <si>
-    <t>['11.5', '12.5', '13.0']</t>
-  </si>
-  <si>
-    <t>['13.0', '13.5']</t>
-  </si>
-  <si>
-    <t>['11.5']</t>
   </si>
 </sst>
 </file>
@@ -1047,67 +1047,67 @@
         <v>117</v>
       </c>
       <c r="G2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" t="s">
         <v>118</v>
       </c>
-      <c r="H2" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>116</v>
+      </c>
+      <c r="R2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T2" t="s">
+        <v>121</v>
+      </c>
+      <c r="U2" t="s">
+        <v>121</v>
+      </c>
+      <c r="V2" t="s">
+        <v>121</v>
+      </c>
+      <c r="W2" t="s">
+        <v>116</v>
+      </c>
+      <c r="X2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y2" t="s">
         <v>118</v>
       </c>
-      <c r="M2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>116</v>
-      </c>
-      <c r="R2" t="s">
-        <v>117</v>
-      </c>
-      <c r="S2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" t="s">
-        <v>117</v>
-      </c>
-      <c r="U2" t="s">
-        <v>117</v>
-      </c>
-      <c r="V2" t="s">
-        <v>121</v>
-      </c>
-      <c r="W2" t="s">
-        <v>116</v>
-      </c>
-      <c r="X2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>117</v>
-      </c>
       <c r="Z2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AA2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB2" t="s">
         <v>117</v>
@@ -1122,7 +1122,7 @@
         <v>116</v>
       </c>
       <c r="AF2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -1139,16 +1139,16 @@
         <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
         <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I3" t="s">
         <v>116</v>
@@ -1157,17 +1157,17 @@
         <v>116</v>
       </c>
       <c r="K3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L3" t="s">
         <v>118</v>
       </c>
-      <c r="L3" t="s">
-        <v>117</v>
-      </c>
       <c r="M3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" t="s">
         <v>118</v>
       </c>
-      <c r="N3" t="s">
-        <v>117</v>
-      </c>
       <c r="O3" t="s">
         <v>116</v>
       </c>
@@ -1178,40 +1178,40 @@
         <v>116</v>
       </c>
       <c r="R3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S3" t="s">
         <v>118</v>
       </c>
       <c r="T3" t="s">
+        <v>120</v>
+      </c>
+      <c r="U3" t="s">
+        <v>120</v>
+      </c>
+      <c r="V3" t="s">
         <v>122</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
+        <v>116</v>
+      </c>
+      <c r="X3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA3" t="s">
         <v>122</v>
       </c>
-      <c r="V3" t="s">
-        <v>118</v>
-      </c>
-      <c r="W3" t="s">
-        <v>116</v>
-      </c>
-      <c r="X3" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>117</v>
-      </c>
       <c r="AB3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD3" t="s">
         <v>116</v>
@@ -1220,7 +1220,7 @@
         <v>116</v>
       </c>
       <c r="AF3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1234,19 +1234,19 @@
         <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I4" t="s">
         <v>116</v>
@@ -1255,16 +1255,16 @@
         <v>116</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L4" t="s">
         <v>117</v>
       </c>
       <c r="M4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O4" t="s">
         <v>116</v>
@@ -1276,19 +1276,19 @@
         <v>116</v>
       </c>
       <c r="R4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="S4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="T4" t="s">
         <v>122</v>
       </c>
       <c r="U4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="V4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="W4" t="s">
         <v>116</v>
@@ -1297,19 +1297,19 @@
         <v>116</v>
       </c>
       <c r="Y4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Z4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AA4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AB4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AC4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AD4" t="s">
         <v>116</v>
@@ -1318,7 +1318,7 @@
         <v>116</v>
       </c>
       <c r="AF4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -1332,7 +1332,7 @@
         <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" t="s">
         <v>129</v>
@@ -1353,7 +1353,7 @@
         <v>116</v>
       </c>
       <c r="K5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" t="s">
         <v>129</v>
@@ -1374,19 +1374,19 @@
         <v>116</v>
       </c>
       <c r="R5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T5" t="s">
         <v>128</v>
       </c>
       <c r="U5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="V5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W5" t="s">
         <v>116</v>
@@ -1395,7 +1395,7 @@
         <v>116</v>
       </c>
       <c r="Y5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z5" t="s">
         <v>129</v>
@@ -1416,7 +1416,7 @@
         <v>116</v>
       </c>
       <c r="AF5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1430,34 +1430,34 @@
         <v>116</v>
       </c>
       <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" t="s">
         <v>118</v>
       </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J6" t="s">
-        <v>116</v>
-      </c>
-      <c r="K6" t="s">
-        <v>117</v>
-      </c>
       <c r="L6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N6" t="s">
         <v>117</v>
@@ -1472,19 +1472,19 @@
         <v>116</v>
       </c>
       <c r="R6" t="s">
+        <v>120</v>
+      </c>
+      <c r="S6" t="s">
+        <v>120</v>
+      </c>
+      <c r="T6" t="s">
         <v>118</v>
       </c>
-      <c r="S6" t="s">
-        <v>117</v>
-      </c>
-      <c r="T6" t="s">
-        <v>117</v>
-      </c>
       <c r="U6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="V6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="W6" t="s">
         <v>116</v>
@@ -1493,19 +1493,19 @@
         <v>116</v>
       </c>
       <c r="Y6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Z6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AB6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD6" t="s">
         <v>116</v>
@@ -1514,7 +1514,7 @@
         <v>116</v>
       </c>
       <c r="AF6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1528,19 +1528,19 @@
         <v>116</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I7" t="s">
         <v>116</v>
@@ -1552,58 +1552,58 @@
         <v>122</v>
       </c>
       <c r="L7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" t="s">
+        <v>121</v>
+      </c>
+      <c r="S7" t="s">
+        <v>120</v>
+      </c>
+      <c r="T7" t="s">
+        <v>121</v>
+      </c>
+      <c r="U7" t="s">
         <v>118</v>
       </c>
-      <c r="M7" t="s">
+      <c r="V7" t="s">
+        <v>120</v>
+      </c>
+      <c r="W7" t="s">
+        <v>116</v>
+      </c>
+      <c r="X7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z7" t="s">
         <v>122</v>
       </c>
-      <c r="N7" t="s">
-        <v>122</v>
-      </c>
-      <c r="O7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>116</v>
-      </c>
-      <c r="R7" t="s">
-        <v>122</v>
-      </c>
-      <c r="S7" t="s">
-        <v>122</v>
-      </c>
-      <c r="T7" t="s">
-        <v>122</v>
-      </c>
-      <c r="U7" t="s">
-        <v>122</v>
-      </c>
-      <c r="V7" t="s">
-        <v>118</v>
-      </c>
-      <c r="W7" t="s">
-        <v>116</v>
-      </c>
-      <c r="X7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>126</v>
-      </c>
       <c r="AA7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AC7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AD7" t="s">
         <v>116</v>
@@ -1626,38 +1626,38 @@
         <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s">
         <v>118</v>
       </c>
-      <c r="F8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" t="s">
-        <v>116</v>
-      </c>
-      <c r="J8" t="s">
-        <v>116</v>
-      </c>
-      <c r="K8" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" t="s">
-        <v>126</v>
-      </c>
       <c r="M8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" t="s">
         <v>118</v>
       </c>
-      <c r="N8" t="s">
-        <v>117</v>
-      </c>
       <c r="O8" t="s">
         <v>116</v>
       </c>
@@ -1668,16 +1668,16 @@
         <v>116</v>
       </c>
       <c r="R8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s">
         <v>118</v>
       </c>
       <c r="T8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="V8" t="s">
         <v>118</v>
@@ -1689,19 +1689,19 @@
         <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Z8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AB8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AD8" t="s">
         <v>116</v>
@@ -1710,7 +1710,7 @@
         <v>116</v>
       </c>
       <c r="AF8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1724,19 +1724,19 @@
         <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
         <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I9" t="s">
         <v>116</v>
@@ -1745,16 +1745,16 @@
         <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O9" t="s">
         <v>116</v>
@@ -1766,16 +1766,16 @@
         <v>116</v>
       </c>
       <c r="R9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="S9" t="s">
         <v>118</v>
       </c>
       <c r="T9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="U9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="V9" t="s">
         <v>118</v>
@@ -1787,19 +1787,19 @@
         <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Z9" t="s">
         <v>121</v>
       </c>
       <c r="AA9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AB9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AD9" t="s">
         <v>116</v>
@@ -1825,7 +1825,7 @@
         <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F10" t="s">
         <v>117</v>
@@ -1834,67 +1834,67 @@
         <v>117</v>
       </c>
       <c r="H10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
         <v>118</v>
       </c>
-      <c r="I10" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K10" t="s">
-        <v>117</v>
-      </c>
       <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" t="s">
+        <v>117</v>
+      </c>
+      <c r="S10" t="s">
+        <v>120</v>
+      </c>
+      <c r="T10" t="s">
+        <v>122</v>
+      </c>
+      <c r="U10" t="s">
+        <v>120</v>
+      </c>
+      <c r="V10" t="s">
+        <v>120</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z10" t="s">
         <v>118</v>
       </c>
-      <c r="M10" t="s">
-        <v>117</v>
-      </c>
-      <c r="N10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O10" t="s">
-        <v>116</v>
-      </c>
-      <c r="P10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>116</v>
-      </c>
-      <c r="R10" t="s">
-        <v>117</v>
-      </c>
-      <c r="S10" t="s">
-        <v>117</v>
-      </c>
-      <c r="T10" t="s">
-        <v>121</v>
-      </c>
-      <c r="U10" t="s">
-        <v>117</v>
-      </c>
-      <c r="V10" t="s">
-        <v>117</v>
-      </c>
-      <c r="W10" t="s">
-        <v>116</v>
-      </c>
-      <c r="X10" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>117</v>
-      </c>
       <c r="AA10" t="s">
         <v>117</v>
       </c>
       <c r="AB10" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="AC10" t="s">
         <v>117</v>
@@ -1906,7 +1906,7 @@
         <v>116</v>
       </c>
       <c r="AF10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1920,16 +1920,16 @@
         <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H11" t="s">
         <v>118</v>
@@ -1941,16 +1941,16 @@
         <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
         <v>116</v>
@@ -1962,19 +1962,19 @@
         <v>116</v>
       </c>
       <c r="R11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="S11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="T11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="U11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="V11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="W11" t="s">
         <v>116</v>
@@ -1983,19 +1983,19 @@
         <v>116</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Z11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AD11" t="s">
         <v>116</v>
@@ -2004,7 +2004,7 @@
         <v>116</v>
       </c>
       <c r="AF11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -2018,83 +2018,83 @@
         <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s">
         <v>123</v>
       </c>
-      <c r="F12" t="s">
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>116</v>
+      </c>
+      <c r="R12" t="s">
+        <v>120</v>
+      </c>
+      <c r="S12" t="s">
+        <v>122</v>
+      </c>
+      <c r="T12" t="s">
+        <v>120</v>
+      </c>
+      <c r="U12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V12" t="s">
         <v>118</v>
       </c>
-      <c r="G12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="W12" t="s">
+        <v>116</v>
+      </c>
+      <c r="X12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC12" t="s">
         <v>118</v>
       </c>
-      <c r="I12" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K12" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" t="s">
-        <v>118</v>
-      </c>
-      <c r="M12" t="s">
-        <v>117</v>
-      </c>
-      <c r="N12" t="s">
-        <v>125</v>
-      </c>
-      <c r="O12" t="s">
-        <v>116</v>
-      </c>
-      <c r="P12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>116</v>
-      </c>
-      <c r="R12" t="s">
-        <v>126</v>
-      </c>
-      <c r="S12" t="s">
-        <v>121</v>
-      </c>
-      <c r="T12" t="s">
-        <v>117</v>
-      </c>
-      <c r="U12" t="s">
-        <v>117</v>
-      </c>
-      <c r="V12" t="s">
-        <v>121</v>
-      </c>
-      <c r="W12" t="s">
-        <v>116</v>
-      </c>
-      <c r="X12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>125</v>
-      </c>
       <c r="AD12" t="s">
         <v>116</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>116</v>
       </c>
       <c r="AF12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -2116,19 +2116,19 @@
         <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s">
         <v>116</v>
@@ -2137,13 +2137,13 @@
         <v>116</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N13" t="s">
         <v>117</v>
@@ -2158,19 +2158,19 @@
         <v>116</v>
       </c>
       <c r="R13" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="S13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="T13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="V13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="W13" t="s">
         <v>116</v>
@@ -2179,19 +2179,19 @@
         <v>116</v>
       </c>
       <c r="Y13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Z13" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AA13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AB13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AD13" t="s">
         <v>116</v>
@@ -2200,7 +2200,7 @@
         <v>116</v>
       </c>
       <c r="AF13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -2214,16 +2214,16 @@
         <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
         <v>122</v>
@@ -2235,16 +2235,16 @@
         <v>116</v>
       </c>
       <c r="K14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
         <v>116</v>
@@ -2256,19 +2256,19 @@
         <v>116</v>
       </c>
       <c r="R14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="V14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="W14" t="s">
         <v>116</v>
@@ -2277,19 +2277,19 @@
         <v>116</v>
       </c>
       <c r="Y14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z14" t="s">
         <v>122</v>
       </c>
       <c r="AA14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AB14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AC14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD14" t="s">
         <v>116</v>
@@ -2298,7 +2298,7 @@
         <v>116</v>
       </c>
       <c r="AF14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -2312,91 +2312,91 @@
         <v>116</v>
       </c>
       <c r="D15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E15" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" t="s">
+        <v>116</v>
+      </c>
+      <c r="K15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" t="s">
+        <v>116</v>
+      </c>
+      <c r="P15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>116</v>
+      </c>
+      <c r="R15" t="s">
+        <v>120</v>
+      </c>
+      <c r="S15" t="s">
+        <v>120</v>
+      </c>
+      <c r="T15" t="s">
+        <v>122</v>
+      </c>
+      <c r="U15" t="s">
+        <v>120</v>
+      </c>
+      <c r="V15" t="s">
+        <v>120</v>
+      </c>
+      <c r="W15" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF15" t="s">
         <v>123</v>
-      </c>
-      <c r="E15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" t="s">
-        <v>121</v>
-      </c>
-      <c r="M15" t="s">
-        <v>117</v>
-      </c>
-      <c r="N15" t="s">
-        <v>117</v>
-      </c>
-      <c r="O15" t="s">
-        <v>116</v>
-      </c>
-      <c r="P15" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>116</v>
-      </c>
-      <c r="R15" t="s">
-        <v>118</v>
-      </c>
-      <c r="S15" t="s">
-        <v>126</v>
-      </c>
-      <c r="T15" t="s">
-        <v>117</v>
-      </c>
-      <c r="U15" t="s">
-        <v>117</v>
-      </c>
-      <c r="V15" t="s">
-        <v>117</v>
-      </c>
-      <c r="W15" t="s">
-        <v>116</v>
-      </c>
-      <c r="X15" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -2410,19 +2410,19 @@
         <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I16" t="s">
         <v>116</v>
@@ -2431,16 +2431,16 @@
         <v>116</v>
       </c>
       <c r="K16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
         <v>116</v>
@@ -2452,19 +2452,19 @@
         <v>116</v>
       </c>
       <c r="R16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S16" t="s">
         <v>127</v>
       </c>
       <c r="T16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="V16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W16" t="s">
         <v>116</v>
@@ -2473,19 +2473,19 @@
         <v>116</v>
       </c>
       <c r="Y16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Z16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD16" t="s">
         <v>116</v>
@@ -2494,7 +2494,7 @@
         <v>116</v>
       </c>
       <c r="AF16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -2508,7 +2508,7 @@
         <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
         <v>127</v>
@@ -2529,7 +2529,7 @@
         <v>116</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L17" t="s">
         <v>127</v>
@@ -2550,10 +2550,10 @@
         <v>116</v>
       </c>
       <c r="R17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="S17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="T17" t="s">
         <v>127</v>
@@ -2571,7 +2571,7 @@
         <v>116</v>
       </c>
       <c r="Y17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Z17" t="s">
         <v>127</v>
@@ -2592,7 +2592,7 @@
         <v>116</v>
       </c>
       <c r="AF17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -2606,38 +2606,38 @@
         <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" t="s">
+        <v>122</v>
+      </c>
+      <c r="M18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" t="s">
         <v>118</v>
       </c>
-      <c r="F18" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" t="s">
-        <v>119</v>
-      </c>
-      <c r="I18" t="s">
-        <v>116</v>
-      </c>
-      <c r="J18" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" t="s">
-        <v>122</v>
-      </c>
-      <c r="L18" t="s">
-        <v>117</v>
-      </c>
-      <c r="M18" t="s">
-        <v>118</v>
-      </c>
-      <c r="N18" t="s">
-        <v>117</v>
-      </c>
       <c r="O18" t="s">
         <v>116</v>
       </c>
@@ -2648,19 +2648,19 @@
         <v>116</v>
       </c>
       <c r="R18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S18" t="s">
         <v>118</v>
       </c>
       <c r="T18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="V18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="W18" t="s">
         <v>116</v>
@@ -2669,19 +2669,19 @@
         <v>116</v>
       </c>
       <c r="Y18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Z18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AA18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AB18" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AC18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AD18" t="s">
         <v>116</v>
@@ -2690,7 +2690,7 @@
         <v>116</v>
       </c>
       <c r="AF18" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -2704,19 +2704,19 @@
         <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I19" t="s">
         <v>116</v>
@@ -2728,67 +2728,67 @@
         <v>122</v>
       </c>
       <c r="L19" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" t="s">
+        <v>124</v>
+      </c>
+      <c r="N19" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>116</v>
+      </c>
+      <c r="R19" t="s">
+        <v>120</v>
+      </c>
+      <c r="S19" t="s">
+        <v>120</v>
+      </c>
+      <c r="T19" t="s">
+        <v>120</v>
+      </c>
+      <c r="U19" t="s">
+        <v>120</v>
+      </c>
+      <c r="V19" t="s">
+        <v>123</v>
+      </c>
+      <c r="W19" t="s">
+        <v>116</v>
+      </c>
+      <c r="X19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF19" t="s">
         <v>122</v>
-      </c>
-      <c r="M19" t="s">
-        <v>121</v>
-      </c>
-      <c r="N19" t="s">
-        <v>126</v>
-      </c>
-      <c r="O19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>116</v>
-      </c>
-      <c r="R19" t="s">
-        <v>122</v>
-      </c>
-      <c r="S19" t="s">
-        <v>121</v>
-      </c>
-      <c r="T19" t="s">
-        <v>122</v>
-      </c>
-      <c r="U19" t="s">
-        <v>119</v>
-      </c>
-      <c r="V19" t="s">
-        <v>122</v>
-      </c>
-      <c r="W19" t="s">
-        <v>116</v>
-      </c>
-      <c r="X19" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -2802,82 +2802,82 @@
         <v>116</v>
       </c>
       <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
         <v>122</v>
       </c>
-      <c r="E20" t="s">
-        <v>121</v>
-      </c>
       <c r="F20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" t="s">
         <v>122</v>
       </c>
-      <c r="G20" t="s">
+      <c r="N20" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>116</v>
+      </c>
+      <c r="R20" t="s">
         <v>122</v>
       </c>
-      <c r="H20" t="s">
+      <c r="S20" t="s">
+        <v>121</v>
+      </c>
+      <c r="T20" t="s">
+        <v>121</v>
+      </c>
+      <c r="U20" t="s">
+        <v>121</v>
+      </c>
+      <c r="V20" t="s">
+        <v>125</v>
+      </c>
+      <c r="W20" t="s">
+        <v>116</v>
+      </c>
+      <c r="X20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z20" t="s">
         <v>122</v>
       </c>
-      <c r="I20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J20" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" t="s">
-        <v>119</v>
-      </c>
-      <c r="N20" t="s">
-        <v>119</v>
-      </c>
-      <c r="O20" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>116</v>
-      </c>
-      <c r="R20" t="s">
-        <v>118</v>
-      </c>
-      <c r="S20" t="s">
-        <v>122</v>
-      </c>
-      <c r="T20" t="s">
-        <v>122</v>
-      </c>
-      <c r="U20" t="s">
-        <v>122</v>
-      </c>
-      <c r="V20" t="s">
-        <v>123</v>
-      </c>
-      <c r="W20" t="s">
-        <v>116</v>
-      </c>
-      <c r="X20" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>117</v>
-      </c>
       <c r="AA20" t="s">
         <v>121</v>
       </c>
       <c r="AB20" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AC20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AD20" t="s">
         <v>116</v>
@@ -2886,7 +2886,7 @@
         <v>116</v>
       </c>
       <c r="AF20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -2900,19 +2900,19 @@
         <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I21" t="s">
         <v>116</v>
@@ -2921,16 +2921,16 @@
         <v>116</v>
       </c>
       <c r="K21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O21" t="s">
         <v>116</v>
@@ -2942,19 +2942,19 @@
         <v>116</v>
       </c>
       <c r="R21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="V21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="W21" t="s">
         <v>116</v>
@@ -2963,19 +2963,19 @@
         <v>116</v>
       </c>
       <c r="Y21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Z21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AA21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AB21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AD21" t="s">
         <v>116</v>
@@ -2984,7 +2984,7 @@
         <v>116</v>
       </c>
       <c r="AF21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -2998,10 +2998,10 @@
         <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F22" t="s">
         <v>117</v>
@@ -3019,16 +3019,16 @@
         <v>116</v>
       </c>
       <c r="K22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L22" t="s">
         <v>122</v>
       </c>
       <c r="M22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O22" t="s">
         <v>116</v>
@@ -3040,40 +3040,40 @@
         <v>116</v>
       </c>
       <c r="R22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S22" t="s">
         <v>117</v>
       </c>
       <c r="T22" t="s">
+        <v>117</v>
+      </c>
+      <c r="U22" t="s">
+        <v>117</v>
+      </c>
+      <c r="V22" t="s">
+        <v>117</v>
+      </c>
+      <c r="W22" t="s">
+        <v>116</v>
+      </c>
+      <c r="X22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA22" t="s">
         <v>118</v>
       </c>
-      <c r="U22" t="s">
-        <v>126</v>
-      </c>
-      <c r="V22" t="s">
-        <v>117</v>
-      </c>
-      <c r="W22" t="s">
-        <v>116</v>
-      </c>
-      <c r="X22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>122</v>
-      </c>
       <c r="AB22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AC22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AD22" t="s">
         <v>116</v>
@@ -3096,61 +3096,61 @@
         <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E23" t="s">
         <v>122</v>
       </c>
       <c r="F23" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" t="s">
+        <v>116</v>
+      </c>
+      <c r="K23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" t="s">
         <v>122</v>
       </c>
-      <c r="G23" t="s">
+      <c r="N23" t="s">
+        <v>120</v>
+      </c>
+      <c r="O23" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>116</v>
+      </c>
+      <c r="R23" t="s">
         <v>122</v>
       </c>
-      <c r="H23" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" t="s">
-        <v>116</v>
-      </c>
-      <c r="K23" t="s">
-        <v>119</v>
-      </c>
-      <c r="L23" t="s">
-        <v>121</v>
-      </c>
-      <c r="M23" t="s">
-        <v>119</v>
-      </c>
-      <c r="N23" t="s">
-        <v>119</v>
-      </c>
-      <c r="O23" t="s">
-        <v>116</v>
-      </c>
-      <c r="P23" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>116</v>
-      </c>
-      <c r="R23" t="s">
-        <v>118</v>
-      </c>
       <c r="S23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="U23" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="V23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W23" t="s">
         <v>116</v>
@@ -3159,19 +3159,19 @@
         <v>116</v>
       </c>
       <c r="Y23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Z23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AA23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD23" t="s">
         <v>116</v>
@@ -3180,7 +3180,7 @@
         <v>116</v>
       </c>
       <c r="AF23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -3194,19 +3194,19 @@
         <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I24" t="s">
         <v>116</v>
@@ -3215,40 +3215,40 @@
         <v>116</v>
       </c>
       <c r="K24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L24" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" t="s">
+        <v>122</v>
+      </c>
+      <c r="N24" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>116</v>
+      </c>
+      <c r="R24" t="s">
         <v>118</v>
       </c>
-      <c r="L24" t="s">
-        <v>119</v>
-      </c>
-      <c r="M24" t="s">
-        <v>119</v>
-      </c>
-      <c r="N24" t="s">
+      <c r="S24" t="s">
+        <v>120</v>
+      </c>
+      <c r="T24" t="s">
+        <v>120</v>
+      </c>
+      <c r="U24" t="s">
         <v>118</v>
       </c>
-      <c r="O24" t="s">
-        <v>116</v>
-      </c>
-      <c r="P24" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>116</v>
-      </c>
-      <c r="R24" t="s">
-        <v>119</v>
-      </c>
-      <c r="S24" t="s">
-        <v>119</v>
-      </c>
-      <c r="T24" t="s">
-        <v>121</v>
-      </c>
-      <c r="U24" t="s">
-        <v>119</v>
-      </c>
       <c r="V24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="W24" t="s">
         <v>116</v>
@@ -3257,19 +3257,19 @@
         <v>116</v>
       </c>
       <c r="Y24" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z24" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AA24" t="s">
         <v>118</v>
       </c>
       <c r="AB24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC24" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AD24" t="s">
         <v>116</v>
@@ -3292,19 +3292,19 @@
         <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I25" t="s">
         <v>116</v>
@@ -3313,16 +3313,16 @@
         <v>116</v>
       </c>
       <c r="K25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M25" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="N25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O25" t="s">
         <v>116</v>
@@ -3334,19 +3334,19 @@
         <v>116</v>
       </c>
       <c r="R25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="S25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="T25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U25" t="s">
         <v>118</v>
       </c>
       <c r="V25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="W25" t="s">
         <v>116</v>
@@ -3355,19 +3355,19 @@
         <v>116</v>
       </c>
       <c r="Y25" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Z25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AB25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AC25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AD25" t="s">
         <v>116</v>
@@ -3376,7 +3376,7 @@
         <v>116</v>
       </c>
       <c r="AF25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -3390,19 +3390,19 @@
         <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
         <v>121</v>
       </c>
       <c r="G26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="I26" t="s">
         <v>116</v>
@@ -3411,16 +3411,16 @@
         <v>116</v>
       </c>
       <c r="K26" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="L26" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="M26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="N26" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O26" t="s">
         <v>116</v>
@@ -3432,40 +3432,40 @@
         <v>116</v>
       </c>
       <c r="R26" t="s">
+        <v>117</v>
+      </c>
+      <c r="S26" t="s">
         <v>122</v>
       </c>
-      <c r="S26" t="s">
-        <v>121</v>
-      </c>
       <c r="T26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="U26" t="s">
+        <v>125</v>
+      </c>
+      <c r="V26" t="s">
+        <v>117</v>
+      </c>
+      <c r="W26" t="s">
+        <v>116</v>
+      </c>
+      <c r="X26" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y26" t="s">
         <v>123</v>
       </c>
-      <c r="V26" t="s">
-        <v>122</v>
-      </c>
-      <c r="W26" t="s">
-        <v>116</v>
-      </c>
-      <c r="X26" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>122</v>
-      </c>
       <c r="Z26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AA26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AB26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC26" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AD26" t="s">
         <v>116</v>
@@ -3474,7 +3474,7 @@
         <v>116</v>
       </c>
       <c r="AF26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -3500,7 +3500,7 @@
         <v>117</v>
       </c>
       <c r="H27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I27" t="s">
         <v>116</v>
@@ -3509,58 +3509,58 @@
         <v>116</v>
       </c>
       <c r="K27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L27" t="s">
         <v>117</v>
       </c>
       <c r="M27" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="N27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O27" t="s">
+        <v>116</v>
+      </c>
+      <c r="P27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>116</v>
+      </c>
+      <c r="R27" t="s">
+        <v>123</v>
+      </c>
+      <c r="S27" t="s">
+        <v>125</v>
+      </c>
+      <c r="T27" t="s">
+        <v>117</v>
+      </c>
+      <c r="U27" t="s">
+        <v>117</v>
+      </c>
+      <c r="V27" t="s">
+        <v>117</v>
+      </c>
+      <c r="W27" t="s">
+        <v>116</v>
+      </c>
+      <c r="X27" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y27" t="s">
         <v>118</v>
       </c>
-      <c r="O27" t="s">
-        <v>116</v>
-      </c>
-      <c r="P27" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>116</v>
-      </c>
-      <c r="R27" t="s">
-        <v>117</v>
-      </c>
-      <c r="S27" t="s">
-        <v>123</v>
-      </c>
-      <c r="T27" t="s">
-        <v>118</v>
-      </c>
-      <c r="U27" t="s">
-        <v>117</v>
-      </c>
-      <c r="V27" t="s">
-        <v>117</v>
-      </c>
-      <c r="W27" t="s">
-        <v>116</v>
-      </c>
-      <c r="X27" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>117</v>
-      </c>
       <c r="Z27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AA27" t="s">
         <v>117</v>
       </c>
       <c r="AB27" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AC27" t="s">
         <v>117</v>
@@ -3572,7 +3572,7 @@
         <v>116</v>
       </c>
       <c r="AF27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -3586,62 +3586,62 @@
         <v>116</v>
       </c>
       <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" t="s">
         <v>122</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" t="s">
+        <v>120</v>
+      </c>
+      <c r="L28" t="s">
         <v>122</v>
       </c>
-      <c r="F28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G28" t="s">
-        <v>121</v>
-      </c>
-      <c r="H28" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" t="s">
-        <v>116</v>
-      </c>
-      <c r="J28" t="s">
-        <v>116</v>
-      </c>
-      <c r="K28" t="s">
-        <v>119</v>
-      </c>
-      <c r="L28" t="s">
-        <v>119</v>
-      </c>
       <c r="M28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N28" t="s">
+        <v>120</v>
+      </c>
+      <c r="O28" t="s">
+        <v>116</v>
+      </c>
+      <c r="P28" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>116</v>
+      </c>
+      <c r="R28" t="s">
+        <v>120</v>
+      </c>
+      <c r="S28" t="s">
+        <v>124</v>
+      </c>
+      <c r="T28" t="s">
+        <v>120</v>
+      </c>
+      <c r="U28" t="s">
+        <v>120</v>
+      </c>
+      <c r="V28" t="s">
         <v>118</v>
       </c>
-      <c r="O28" t="s">
-        <v>116</v>
-      </c>
-      <c r="P28" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>116</v>
-      </c>
-      <c r="R28" t="s">
-        <v>119</v>
-      </c>
-      <c r="S28" t="s">
-        <v>119</v>
-      </c>
-      <c r="T28" t="s">
-        <v>119</v>
-      </c>
-      <c r="U28" t="s">
-        <v>121</v>
-      </c>
-      <c r="V28" t="s">
-        <v>119</v>
-      </c>
       <c r="W28" t="s">
         <v>116</v>
       </c>
@@ -3649,16 +3649,16 @@
         <v>116</v>
       </c>
       <c r="Y28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="Z28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB28" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AC28" t="s">
         <v>122</v>
@@ -3670,7 +3670,7 @@
         <v>116</v>
       </c>
       <c r="AF28" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -3684,61 +3684,61 @@
         <v>116</v>
       </c>
       <c r="D29" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" t="s">
         <v>125</v>
       </c>
-      <c r="E29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" t="s">
+        <v>116</v>
+      </c>
+      <c r="K29" t="s">
+        <v>122</v>
+      </c>
+      <c r="L29" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" t="s">
         <v>125</v>
       </c>
-      <c r="G29" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" t="s">
-        <v>116</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="O29" t="s">
+        <v>116</v>
+      </c>
+      <c r="P29" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>116</v>
+      </c>
+      <c r="R29" t="s">
+        <v>122</v>
+      </c>
+      <c r="S29" t="s">
+        <v>124</v>
+      </c>
+      <c r="T29" t="s">
         <v>118</v>
       </c>
-      <c r="L29" t="s">
-        <v>117</v>
-      </c>
-      <c r="M29" t="s">
-        <v>117</v>
-      </c>
-      <c r="N29" t="s">
-        <v>123</v>
-      </c>
-      <c r="O29" t="s">
-        <v>116</v>
-      </c>
-      <c r="P29" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>116</v>
-      </c>
-      <c r="R29" t="s">
-        <v>118</v>
-      </c>
-      <c r="S29" t="s">
-        <v>117</v>
-      </c>
-      <c r="T29" t="s">
-        <v>117</v>
-      </c>
       <c r="U29" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="V29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="W29" t="s">
         <v>116</v>
@@ -3747,19 +3747,19 @@
         <v>116</v>
       </c>
       <c r="Y29" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Z29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AA29" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AB29" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AC29" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AD29" t="s">
         <v>116</v>
@@ -3782,91 +3782,91 @@
         <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I30" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" t="s">
+        <v>116</v>
+      </c>
+      <c r="K30" t="s">
+        <v>121</v>
+      </c>
+      <c r="L30" t="s">
+        <v>118</v>
+      </c>
+      <c r="M30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" t="s">
+        <v>117</v>
+      </c>
+      <c r="O30" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>116</v>
+      </c>
+      <c r="R30" t="s">
+        <v>118</v>
+      </c>
+      <c r="S30" t="s">
+        <v>117</v>
+      </c>
+      <c r="T30" t="s">
+        <v>117</v>
+      </c>
+      <c r="U30" t="s">
+        <v>117</v>
+      </c>
+      <c r="V30" t="s">
+        <v>117</v>
+      </c>
+      <c r="W30" t="s">
+        <v>116</v>
+      </c>
+      <c r="X30" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF30" t="s">
         <v>122</v>
-      </c>
-      <c r="F30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" t="s">
-        <v>122</v>
-      </c>
-      <c r="H30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I30" t="s">
-        <v>116</v>
-      </c>
-      <c r="J30" t="s">
-        <v>116</v>
-      </c>
-      <c r="K30" t="s">
-        <v>122</v>
-      </c>
-      <c r="L30" t="s">
-        <v>122</v>
-      </c>
-      <c r="M30" t="s">
-        <v>125</v>
-      </c>
-      <c r="N30" t="s">
-        <v>122</v>
-      </c>
-      <c r="O30" t="s">
-        <v>116</v>
-      </c>
-      <c r="P30" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>116</v>
-      </c>
-      <c r="R30" t="s">
-        <v>122</v>
-      </c>
-      <c r="S30" t="s">
-        <v>122</v>
-      </c>
-      <c r="T30" t="s">
-        <v>118</v>
-      </c>
-      <c r="U30" t="s">
-        <v>122</v>
-      </c>
-      <c r="V30" t="s">
-        <v>122</v>
-      </c>
-      <c r="W30" t="s">
-        <v>116</v>
-      </c>
-      <c r="X30" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>122</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -3883,16 +3883,16 @@
         <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I31" t="s">
         <v>116</v>
@@ -3904,13 +3904,13 @@
         <v>127</v>
       </c>
       <c r="L31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O31" t="s">
         <v>116</v>
@@ -3931,7 +3931,7 @@
         <v>129</v>
       </c>
       <c r="U31" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="V31" t="s">
         <v>129</v>
@@ -3946,16 +3946,16 @@
         <v>127</v>
       </c>
       <c r="Z31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AA31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AB31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD31" t="s">
         <v>116</v>
@@ -3964,7 +3964,7 @@
         <v>116</v>
       </c>
       <c r="AF31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -3978,19 +3978,19 @@
         <v>116</v>
       </c>
       <c r="D32" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" t="s">
         <v>118</v>
       </c>
-      <c r="E32" t="s">
-        <v>117</v>
-      </c>
       <c r="F32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I32" t="s">
         <v>116</v>
@@ -3999,16 +3999,16 @@
         <v>116</v>
       </c>
       <c r="K32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L32" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N32" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="O32" t="s">
         <v>116</v>
@@ -4020,40 +4020,40 @@
         <v>116</v>
       </c>
       <c r="R32" t="s">
+        <v>121</v>
+      </c>
+      <c r="S32" t="s">
+        <v>121</v>
+      </c>
+      <c r="T32" t="s">
+        <v>122</v>
+      </c>
+      <c r="U32" t="s">
+        <v>121</v>
+      </c>
+      <c r="V32" t="s">
+        <v>121</v>
+      </c>
+      <c r="W32" t="s">
+        <v>116</v>
+      </c>
+      <c r="X32" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z32" t="s">
         <v>118</v>
       </c>
-      <c r="S32" t="s">
-        <v>117</v>
-      </c>
-      <c r="T32" t="s">
-        <v>126</v>
-      </c>
-      <c r="U32" t="s">
-        <v>126</v>
-      </c>
-      <c r="V32" t="s">
-        <v>117</v>
-      </c>
-      <c r="W32" t="s">
-        <v>116</v>
-      </c>
-      <c r="X32" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>117</v>
-      </c>
       <c r="AA32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AB32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AC32" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AD32" t="s">
         <v>116</v>
@@ -4062,7 +4062,7 @@
         <v>116</v>
       </c>
       <c r="AF32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:32">
@@ -4124,7 +4124,7 @@
         <v>128</v>
       </c>
       <c r="T33" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U33" t="s">
         <v>128</v>
@@ -4174,38 +4174,38 @@
         <v>116</v>
       </c>
       <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" t="s">
+        <v>116</v>
+      </c>
+      <c r="K34" t="s">
+        <v>121</v>
+      </c>
+      <c r="L34" t="s">
+        <v>121</v>
+      </c>
+      <c r="M34" t="s">
+        <v>121</v>
+      </c>
+      <c r="N34" t="s">
         <v>122</v>
       </c>
-      <c r="E34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" t="s">
-        <v>122</v>
-      </c>
-      <c r="H34" t="s">
-        <v>121</v>
-      </c>
-      <c r="I34" t="s">
-        <v>116</v>
-      </c>
-      <c r="J34" t="s">
-        <v>116</v>
-      </c>
-      <c r="K34" t="s">
-        <v>122</v>
-      </c>
-      <c r="L34" t="s">
-        <v>122</v>
-      </c>
-      <c r="M34" t="s">
-        <v>122</v>
-      </c>
-      <c r="N34" t="s">
-        <v>121</v>
-      </c>
       <c r="O34" t="s">
         <v>116</v>
       </c>
@@ -4216,19 +4216,19 @@
         <v>116</v>
       </c>
       <c r="R34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S34" t="s">
         <v>122</v>
       </c>
       <c r="T34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U34" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="V34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W34" t="s">
         <v>116</v>
@@ -4237,16 +4237,16 @@
         <v>116</v>
       </c>
       <c r="Y34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="Z34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AA34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AB34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AC34" t="s">
         <v>117</v>
@@ -4258,7 +4258,7 @@
         <v>116</v>
       </c>
       <c r="AF34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -4272,82 +4272,82 @@
         <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H35" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" t="s">
+        <v>116</v>
+      </c>
+      <c r="K35" t="s">
+        <v>120</v>
+      </c>
+      <c r="L35" t="s">
+        <v>124</v>
+      </c>
+      <c r="M35" t="s">
+        <v>118</v>
+      </c>
+      <c r="N35" t="s">
+        <v>121</v>
+      </c>
+      <c r="O35" t="s">
+        <v>116</v>
+      </c>
+      <c r="P35" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>116</v>
+      </c>
+      <c r="R35" t="s">
+        <v>121</v>
+      </c>
+      <c r="S35" t="s">
+        <v>118</v>
+      </c>
+      <c r="T35" t="s">
+        <v>121</v>
+      </c>
+      <c r="U35" t="s">
         <v>125</v>
       </c>
-      <c r="I35" t="s">
-        <v>116</v>
-      </c>
-      <c r="J35" t="s">
-        <v>116</v>
-      </c>
-      <c r="K35" t="s">
-        <v>122</v>
-      </c>
-      <c r="L35" t="s">
-        <v>126</v>
-      </c>
-      <c r="M35" t="s">
-        <v>122</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="V35" t="s">
+        <v>125</v>
+      </c>
+      <c r="W35" t="s">
+        <v>116</v>
+      </c>
+      <c r="X35" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y35" t="s">
         <v>118</v>
       </c>
-      <c r="O35" t="s">
-        <v>116</v>
-      </c>
-      <c r="P35" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>116</v>
-      </c>
-      <c r="R35" t="s">
-        <v>122</v>
-      </c>
-      <c r="S35" t="s">
-        <v>117</v>
-      </c>
-      <c r="T35" t="s">
-        <v>125</v>
-      </c>
-      <c r="U35" t="s">
-        <v>123</v>
-      </c>
-      <c r="V35" t="s">
-        <v>123</v>
-      </c>
-      <c r="W35" t="s">
-        <v>116</v>
-      </c>
-      <c r="X35" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>119</v>
-      </c>
       <c r="Z35" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AA35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AB35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC35" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AD35" t="s">
         <v>116</v>
@@ -4356,7 +4356,7 @@
         <v>116</v>
       </c>
       <c r="AF35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:32">
@@ -4373,16 +4373,16 @@
         <v>129</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s">
         <v>121</v>
       </c>
       <c r="G36" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I36" t="s">
         <v>116</v>
@@ -4397,10 +4397,10 @@
         <v>121</v>
       </c>
       <c r="M36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O36" t="s">
         <v>116</v>
@@ -4415,16 +4415,16 @@
         <v>129</v>
       </c>
       <c r="S36" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="T36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="U36" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="V36" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="W36" t="s">
         <v>116</v>
@@ -4436,16 +4436,16 @@
         <v>129</v>
       </c>
       <c r="Z36" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA36" t="s">
         <v>118</v>
       </c>
-      <c r="AA36" t="s">
-        <v>119</v>
-      </c>
       <c r="AB36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AC36" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AD36" t="s">
         <v>116</v>
@@ -4468,19 +4468,19 @@
         <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I37" t="s">
         <v>116</v>
@@ -4489,17 +4489,17 @@
         <v>116</v>
       </c>
       <c r="K37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M37" t="s">
+        <v>117</v>
+      </c>
+      <c r="N37" t="s">
         <v>118</v>
       </c>
-      <c r="N37" t="s">
-        <v>122</v>
-      </c>
       <c r="O37" t="s">
         <v>116</v>
       </c>
@@ -4510,41 +4510,41 @@
         <v>116</v>
       </c>
       <c r="R37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="T37" t="s">
+        <v>117</v>
+      </c>
+      <c r="U37" t="s">
+        <v>123</v>
+      </c>
+      <c r="V37" t="s">
+        <v>117</v>
+      </c>
+      <c r="W37" t="s">
+        <v>116</v>
+      </c>
+      <c r="X37" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC37" t="s">
         <v>118</v>
       </c>
-      <c r="U37" t="s">
-        <v>119</v>
-      </c>
-      <c r="V37" t="s">
-        <v>119</v>
-      </c>
-      <c r="W37" t="s">
-        <v>116</v>
-      </c>
-      <c r="X37" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>122</v>
-      </c>
       <c r="AD37" t="s">
         <v>116</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>116</v>
       </c>
       <c r="AF37" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:32">
@@ -4566,10 +4566,10 @@
         <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F38" t="s">
         <v>118</v>
@@ -4587,16 +4587,16 @@
         <v>116</v>
       </c>
       <c r="K38" t="s">
+        <v>117</v>
+      </c>
+      <c r="L38" t="s">
         <v>118</v>
       </c>
-      <c r="L38" t="s">
-        <v>117</v>
-      </c>
       <c r="M38" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="N38" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O38" t="s">
         <v>116</v>
@@ -4611,16 +4611,16 @@
         <v>117</v>
       </c>
       <c r="S38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U38" t="s">
         <v>117</v>
       </c>
       <c r="V38" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W38" t="s">
         <v>116</v>
@@ -4629,16 +4629,16 @@
         <v>116</v>
       </c>
       <c r="Y38" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Z38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA38" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AB38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AC38" t="s">
         <v>118</v>
@@ -4650,7 +4650,7 @@
         <v>116</v>
       </c>
       <c r="AF38" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:32">
@@ -4667,16 +4667,16 @@
         <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I39" t="s">
         <v>116</v>
@@ -4685,16 +4685,16 @@
         <v>116</v>
       </c>
       <c r="K39" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L39" t="s">
         <v>122</v>
       </c>
       <c r="M39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="O39" t="s">
         <v>116</v>
@@ -4706,7 +4706,7 @@
         <v>116</v>
       </c>
       <c r="R39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="S39" t="s">
         <v>117</v>
@@ -4715,10 +4715,10 @@
         <v>118</v>
       </c>
       <c r="U39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="V39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="W39" t="s">
         <v>116</v>
@@ -4727,19 +4727,19 @@
         <v>116</v>
       </c>
       <c r="Y39" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="Z39" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AA39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AB39" t="s">
         <v>122</v>
       </c>
       <c r="AC39" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AD39" t="s">
         <v>116</v>
@@ -4748,7 +4748,7 @@
         <v>116</v>
       </c>
       <c r="AF39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:32">
@@ -4762,19 +4762,19 @@
         <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I40" t="s">
         <v>116</v>
@@ -4783,70 +4783,70 @@
         <v>116</v>
       </c>
       <c r="K40" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L40" t="s">
         <v>122</v>
       </c>
       <c r="M40" t="s">
+        <v>117</v>
+      </c>
+      <c r="N40" t="s">
+        <v>121</v>
+      </c>
+      <c r="O40" t="s">
+        <v>116</v>
+      </c>
+      <c r="P40" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>116</v>
+      </c>
+      <c r="R40" t="s">
+        <v>117</v>
+      </c>
+      <c r="S40" t="s">
+        <v>117</v>
+      </c>
+      <c r="T40" t="s">
+        <v>117</v>
+      </c>
+      <c r="U40" t="s">
+        <v>118</v>
+      </c>
+      <c r="V40" t="s">
+        <v>117</v>
+      </c>
+      <c r="W40" t="s">
+        <v>116</v>
+      </c>
+      <c r="X40" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y40" t="s">
         <v>122</v>
       </c>
-      <c r="N40" t="s">
-        <v>122</v>
-      </c>
-      <c r="O40" t="s">
-        <v>116</v>
-      </c>
-      <c r="P40" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>116</v>
-      </c>
-      <c r="R40" t="s">
-        <v>122</v>
-      </c>
-      <c r="S40" t="s">
-        <v>122</v>
-      </c>
-      <c r="T40" t="s">
+      <c r="Z40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF40" t="s">
         <v>118</v>
-      </c>
-      <c r="U40" t="s">
-        <v>122</v>
-      </c>
-      <c r="V40" t="s">
-        <v>122</v>
-      </c>
-      <c r="W40" t="s">
-        <v>116</v>
-      </c>
-      <c r="X40" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -4860,19 +4860,19 @@
         <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I41" t="s">
         <v>116</v>
@@ -4881,70 +4881,70 @@
         <v>116</v>
       </c>
       <c r="K41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L41" t="s">
+        <v>123</v>
+      </c>
+      <c r="M41" t="s">
+        <v>120</v>
+      </c>
+      <c r="N41" t="s">
+        <v>120</v>
+      </c>
+      <c r="O41" t="s">
+        <v>116</v>
+      </c>
+      <c r="P41" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>116</v>
+      </c>
+      <c r="R41" t="s">
+        <v>120</v>
+      </c>
+      <c r="S41" t="s">
+        <v>120</v>
+      </c>
+      <c r="T41" t="s">
+        <v>120</v>
+      </c>
+      <c r="U41" t="s">
+        <v>118</v>
+      </c>
+      <c r="V41" t="s">
+        <v>120</v>
+      </c>
+      <c r="W41" t="s">
+        <v>116</v>
+      </c>
+      <c r="X41" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y41" t="s">
         <v>122</v>
       </c>
-      <c r="M41" t="s">
-        <v>122</v>
-      </c>
-      <c r="N41" t="s">
-        <v>119</v>
-      </c>
-      <c r="O41" t="s">
-        <v>116</v>
-      </c>
-      <c r="P41" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>116</v>
-      </c>
-      <c r="R41" t="s">
-        <v>121</v>
-      </c>
-      <c r="S41" t="s">
-        <v>122</v>
-      </c>
-      <c r="T41" t="s">
-        <v>122</v>
-      </c>
-      <c r="U41" t="s">
-        <v>119</v>
-      </c>
-      <c r="V41" t="s">
-        <v>122</v>
-      </c>
-      <c r="W41" t="s">
-        <v>116</v>
-      </c>
-      <c r="X41" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>119</v>
-      </c>
       <c r="Z41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB41" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF41" t="s">
         <v>118</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>116</v>
-      </c>
-      <c r="AF41" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:32">
@@ -4958,19 +4958,19 @@
         <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E42" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I42" t="s">
         <v>116</v>
@@ -4979,16 +4979,16 @@
         <v>116</v>
       </c>
       <c r="K42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O42" t="s">
         <v>116</v>
@@ -5003,16 +5003,16 @@
         <v>121</v>
       </c>
       <c r="S42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="U42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W42" t="s">
         <v>116</v>
@@ -5021,19 +5021,19 @@
         <v>116</v>
       </c>
       <c r="Y42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z42" t="s">
         <v>122</v>
       </c>
       <c r="AA42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AB42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD42" t="s">
         <v>116</v>
@@ -5042,7 +5042,7 @@
         <v>116</v>
       </c>
       <c r="AF42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:32">
@@ -5056,19 +5056,19 @@
         <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I43" t="s">
         <v>116</v>
@@ -5077,61 +5077,61 @@
         <v>116</v>
       </c>
       <c r="K43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L43" t="s">
+        <v>117</v>
+      </c>
+      <c r="M43" t="s">
+        <v>117</v>
+      </c>
+      <c r="N43" t="s">
+        <v>117</v>
+      </c>
+      <c r="O43" t="s">
+        <v>116</v>
+      </c>
+      <c r="P43" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>116</v>
+      </c>
+      <c r="R43" t="s">
         <v>122</v>
       </c>
-      <c r="M43" t="s">
+      <c r="S43" t="s">
+        <v>117</v>
+      </c>
+      <c r="T43" t="s">
+        <v>117</v>
+      </c>
+      <c r="U43" t="s">
+        <v>117</v>
+      </c>
+      <c r="V43" t="s">
+        <v>117</v>
+      </c>
+      <c r="W43" t="s">
+        <v>116</v>
+      </c>
+      <c r="X43" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z43" t="s">
         <v>122</v>
       </c>
-      <c r="N43" t="s">
-        <v>122</v>
-      </c>
-      <c r="O43" t="s">
-        <v>116</v>
-      </c>
-      <c r="P43" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>116</v>
-      </c>
-      <c r="R43" t="s">
-        <v>121</v>
-      </c>
-      <c r="S43" t="s">
-        <v>126</v>
-      </c>
-      <c r="T43" t="s">
-        <v>119</v>
-      </c>
-      <c r="U43" t="s">
-        <v>119</v>
-      </c>
-      <c r="V43" t="s">
-        <v>119</v>
-      </c>
-      <c r="W43" t="s">
-        <v>116</v>
-      </c>
-      <c r="X43" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>126</v>
-      </c>
       <c r="AA43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AB43" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AC43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AD43" t="s">
         <v>116</v>
@@ -5140,7 +5140,7 @@
         <v>116</v>
       </c>
       <c r="AF43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5268,7 +5268,7 @@
         <v>7</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -5286,55 +5286,55 @@
         <v>9</v>
       </c>
       <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>7</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>116</v>
+      </c>
+      <c r="W2" t="s">
+        <v>116</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
         <v>8</v>
-      </c>
-      <c r="M2">
-        <v>6</v>
-      </c>
-      <c r="N2" t="s">
-        <v>116</v>
-      </c>
-      <c r="O2" t="s">
-        <v>116</v>
-      </c>
-      <c r="P2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>8</v>
-      </c>
-      <c r="S2">
-        <v>7</v>
-      </c>
-      <c r="T2">
-        <v>7</v>
-      </c>
-      <c r="U2">
-        <v>4</v>
-      </c>
-      <c r="V2" t="s">
-        <v>116</v>
-      </c>
-      <c r="W2" t="s">
-        <v>116</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>7</v>
       </c>
       <c r="Z2">
         <v>7</v>
       </c>
       <c r="AA2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC2" t="s">
         <v>116</v>
@@ -5363,7 +5363,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -5381,10 +5381,10 @@
         <v>6</v>
       </c>
       <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
         <v>3</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
       </c>
       <c r="N3" t="s">
         <v>116</v>
@@ -5399,16 +5399,16 @@
         <v>4</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V3" t="s">
         <v>116</v>
@@ -5420,16 +5420,16 @@
         <v>4</v>
       </c>
       <c r="Y3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z3">
         <v>2</v>
       </c>
       <c r="AA3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC3" t="s">
         <v>116</v>
@@ -5458,7 +5458,7 @@
         <v>6</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>7</v>
@@ -5476,55 +5476,55 @@
         <v>7</v>
       </c>
       <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" t="s">
+        <v>116</v>
+      </c>
+      <c r="P4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
         <v>7</v>
       </c>
-      <c r="M4">
-        <v>10</v>
-      </c>
-      <c r="N4" t="s">
-        <v>116</v>
-      </c>
-      <c r="O4" t="s">
-        <v>116</v>
-      </c>
-      <c r="P4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4" t="s">
+        <v>116</v>
+      </c>
+      <c r="W4" t="s">
+        <v>116</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>6</v>
-      </c>
-      <c r="S4">
-        <v>6</v>
-      </c>
-      <c r="T4">
-        <v>11</v>
-      </c>
-      <c r="U4">
-        <v>7</v>
-      </c>
-      <c r="V4" t="s">
-        <v>116</v>
-      </c>
-      <c r="W4" t="s">
-        <v>116</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>5</v>
       </c>
       <c r="Z4">
         <v>6</v>
       </c>
       <c r="AA4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="s">
         <v>116</v>
@@ -5553,7 +5553,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -5571,10 +5571,10 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
         <v>116</v>
@@ -5589,16 +5589,16 @@
         <v>2</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>-1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>1</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>4</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
       </c>
       <c r="V5" t="s">
         <v>116</v>
@@ -5610,16 +5610,16 @@
         <v>2</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
         <v>0</v>
       </c>
       <c r="AA5">
+        <v>6</v>
+      </c>
+      <c r="AB5">
         <v>4</v>
-      </c>
-      <c r="AB5">
-        <v>3</v>
       </c>
       <c r="AC5" t="s">
         <v>116</v>
@@ -5648,7 +5648,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -5666,35 +5666,35 @@
         <v>4</v>
       </c>
       <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>116</v>
+      </c>
+      <c r="O6" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
         <v>6</v>
       </c>
-      <c r="M6">
-        <v>9</v>
-      </c>
-      <c r="N6" t="s">
-        <v>116</v>
-      </c>
-      <c r="O6" t="s">
-        <v>116</v>
-      </c>
-      <c r="P6" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="U6">
         <v>3</v>
       </c>
-      <c r="S6">
-        <v>5</v>
-      </c>
-      <c r="T6">
-        <v>10</v>
-      </c>
-      <c r="U6">
-        <v>5</v>
-      </c>
       <c r="V6" t="s">
         <v>116</v>
       </c>
@@ -5705,16 +5705,16 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z6">
         <v>5</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AB6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC6" t="s">
         <v>116</v>
@@ -5734,19 +5734,19 @@
         <v>116</v>
       </c>
       <c r="C7">
+        <v>-5</v>
+      </c>
+      <c r="D7">
         <v>-4</v>
       </c>
-      <c r="D7">
-        <v>-5</v>
-      </c>
       <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
         <v>1</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
       </c>
       <c r="H7" t="s">
         <v>116</v>
@@ -5758,13 +5758,13 @@
         <v>-5</v>
       </c>
       <c r="K7">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>116</v>
@@ -5776,19 +5776,19 @@
         <v>116</v>
       </c>
       <c r="Q7">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="R7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="S7">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V7" t="s">
         <v>116</v>
@@ -5797,19 +5797,19 @@
         <v>116</v>
       </c>
       <c r="X7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="Y7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="Z7">
         <v>1</v>
       </c>
       <c r="AA7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="s">
         <v>116</v>
@@ -5829,19 +5829,19 @@
         <v>116</v>
       </c>
       <c r="C8">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H8" t="s">
         <v>116</v>
@@ -5853,13 +5853,13 @@
         <v>-6</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="s">
         <v>116</v>
@@ -5871,16 +5871,16 @@
         <v>116</v>
       </c>
       <c r="Q8">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="R8">
         <v>-3</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -5895,13 +5895,13 @@
         <v>-6</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -5927,16 +5927,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9" t="s">
         <v>116</v>
@@ -5945,10 +5945,10 @@
         <v>116</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -5966,40 +5966,40 @@
         <v>116</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R9">
         <v>3</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>116</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
         <v>3</v>
       </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9" t="s">
-        <v>116</v>
-      </c>
-      <c r="W9" t="s">
-        <v>116</v>
-      </c>
-      <c r="X9">
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <v>4</v>
-      </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>2</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
       </c>
       <c r="AC9" t="s">
         <v>116</v>
@@ -6022,16 +6022,16 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
         <v>116</v>
@@ -6046,10 +6046,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" t="s">
         <v>116</v>
@@ -6091,7 +6091,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>2</v>
@@ -6114,16 +6114,16 @@
         <v>116</v>
       </c>
       <c r="C11">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -6135,16 +6135,16 @@
         <v>116</v>
       </c>
       <c r="J11">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L11">
         <v>8</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N11" t="s">
         <v>116</v>
@@ -6159,16 +6159,16 @@
         <v>-4</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
         <v>5</v>
       </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
       <c r="U11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="s">
         <v>116</v>
@@ -6180,13 +6180,13 @@
         <v>-3</v>
       </c>
       <c r="Y11">
+        <v>4</v>
+      </c>
+      <c r="Z11">
+        <v>7</v>
+      </c>
+      <c r="AA11">
         <v>2</v>
-      </c>
-      <c r="Z11">
-        <v>6</v>
-      </c>
-      <c r="AA11">
-        <v>4</v>
       </c>
       <c r="AB11">
         <v>7</v>
@@ -6209,16 +6209,16 @@
         <v>116</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <v>5</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -6233,13 +6233,13 @@
         <v>4</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N12" t="s">
         <v>116</v>
@@ -6251,16 +6251,16 @@
         <v>116</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R12">
         <v>8</v>
       </c>
       <c r="S12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U12">
         <v>10</v>
@@ -6275,7 +6275,7 @@
         <v>4</v>
       </c>
       <c r="Y12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Z12">
         <v>10</v>
@@ -6376,7 +6376,7 @@
         <v>13</v>
       </c>
       <c r="AA13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB13">
         <v>13</v>
@@ -6471,7 +6471,7 @@
         <v>13</v>
       </c>
       <c r="AA14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB14">
         <v>12</v>
@@ -6566,7 +6566,7 @@
         <v>12</v>
       </c>
       <c r="AA15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB15">
         <v>14</v>
@@ -6661,7 +6661,7 @@
         <v>10</v>
       </c>
       <c r="AA16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB16">
         <v>13</v>
@@ -6684,19 +6684,19 @@
         <v>116</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" t="s">
         <v>116</v>
@@ -6708,38 +6708,38 @@
         <v>-1</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
         <v>5</v>
       </c>
       <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
         <v>4</v>
       </c>
-      <c r="N17" t="s">
-        <v>116</v>
-      </c>
-      <c r="O17" t="s">
-        <v>116</v>
-      </c>
-      <c r="P17" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q17">
-        <v>-1</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>3</v>
-      </c>
-      <c r="T17">
-        <v>5</v>
-      </c>
-      <c r="U17">
-        <v>5</v>
-      </c>
       <c r="V17" t="s">
         <v>116</v>
       </c>
@@ -6747,19 +6747,19 @@
         <v>116</v>
       </c>
       <c r="X17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17">
         <v>6</v>
       </c>
       <c r="AA17">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AB17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AC17" t="s">
         <v>116</v>
@@ -6779,19 +6779,19 @@
         <v>116</v>
       </c>
       <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
         <v>8</v>
-      </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>11</v>
-      </c>
-      <c r="G18">
-        <v>7</v>
       </c>
       <c r="H18" t="s">
         <v>116</v>
@@ -6803,13 +6803,13 @@
         <v>7</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>7</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N18" t="s">
         <v>116</v>
@@ -6821,19 +6821,19 @@
         <v>116</v>
       </c>
       <c r="Q18">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
         <v>7</v>
       </c>
-      <c r="R18">
-        <v>5</v>
-      </c>
-      <c r="S18">
-        <v>5</v>
-      </c>
       <c r="T18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V18" t="s">
         <v>116</v>
@@ -6842,19 +6842,19 @@
         <v>116</v>
       </c>
       <c r="X18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Z18">
         <v>8</v>
       </c>
       <c r="AA18">
+        <v>14</v>
+      </c>
+      <c r="AB18">
         <v>8</v>
-      </c>
-      <c r="AB18">
-        <v>10</v>
       </c>
       <c r="AC18" t="s">
         <v>116</v>
@@ -6874,19 +6874,19 @@
         <v>116</v>
       </c>
       <c r="C19">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="D19">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E19">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F19">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="G19">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H19" t="s">
         <v>116</v>
@@ -6898,38 +6898,38 @@
         <v>-4</v>
       </c>
       <c r="K19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="L19">
         <v>-4</v>
       </c>
       <c r="M19">
+        <v>-4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O19" t="s">
+        <v>116</v>
+      </c>
+      <c r="P19" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19">
         <v>-6</v>
       </c>
-      <c r="N19" t="s">
-        <v>116</v>
-      </c>
-      <c r="O19" t="s">
-        <v>116</v>
-      </c>
-      <c r="P19" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q19">
+      <c r="R19">
+        <v>-3</v>
+      </c>
+      <c r="S19">
+        <v>-6</v>
+      </c>
+      <c r="T19">
+        <v>-6</v>
+      </c>
+      <c r="U19">
         <v>-5</v>
       </c>
-      <c r="R19">
-        <v>-4</v>
-      </c>
-      <c r="S19">
-        <v>-4</v>
-      </c>
-      <c r="T19">
-        <v>-8</v>
-      </c>
-      <c r="U19">
-        <v>-6</v>
-      </c>
       <c r="V19" t="s">
         <v>116</v>
       </c>
@@ -6937,19 +6937,19 @@
         <v>116</v>
       </c>
       <c r="X19">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="Y19">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="Z19">
         <v>-6</v>
       </c>
       <c r="AA19">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="AB19">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="AC19" t="s">
         <v>116</v>
@@ -6969,19 +6969,19 @@
         <v>116</v>
       </c>
       <c r="C20">
+        <v>-2</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>-6</v>
+      </c>
+      <c r="G20">
         <v>-3</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>-2</v>
-      </c>
-      <c r="F20">
-        <v>-5</v>
-      </c>
-      <c r="G20">
-        <v>-2</v>
       </c>
       <c r="H20" t="s">
         <v>116</v>
@@ -6993,58 +6993,58 @@
         <v>-1</v>
       </c>
       <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>-1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O20" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q20">
+        <v>-3</v>
+      </c>
+      <c r="R20">
         <v>1</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
+      <c r="S20">
+        <v>-2</v>
+      </c>
+      <c r="T20">
         <v>-3</v>
       </c>
-      <c r="N20" t="s">
-        <v>116</v>
-      </c>
-      <c r="O20" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20">
+      <c r="U20">
+        <v>-4</v>
+      </c>
+      <c r="V20" t="s">
+        <v>116</v>
+      </c>
+      <c r="W20" t="s">
+        <v>116</v>
+      </c>
+      <c r="X20">
         <v>-2</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>-5</v>
-      </c>
-      <c r="U20">
-        <v>-5</v>
-      </c>
-      <c r="V20" t="s">
-        <v>116</v>
-      </c>
-      <c r="W20" t="s">
-        <v>116</v>
-      </c>
-      <c r="X20">
-        <v>-3</v>
-      </c>
       <c r="Y20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>-2</v>
       </c>
       <c r="AA20">
-        <v>-3</v>
+        <v>-8</v>
       </c>
       <c r="AB20">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="AC20" t="s">
         <v>116</v>
@@ -7064,19 +7064,19 @@
         <v>116</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
         <v>116</v>
@@ -7088,58 +7088,58 @@
         <v>2</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>2</v>
       </c>
       <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>116</v>
+      </c>
+      <c r="O21" t="s">
+        <v>116</v>
+      </c>
+      <c r="P21" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>-1</v>
       </c>
-      <c r="N21" t="s">
-        <v>116</v>
-      </c>
-      <c r="O21" t="s">
-        <v>116</v>
-      </c>
-      <c r="P21" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q21">
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>116</v>
+      </c>
+      <c r="W21" t="s">
+        <v>116</v>
+      </c>
+      <c r="X21">
         <v>1</v>
       </c>
-      <c r="R21">
-        <v>-1</v>
-      </c>
-      <c r="S21">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>-6</v>
+      </c>
+      <c r="AB21">
         <v>2</v>
-      </c>
-      <c r="T21">
-        <v>-3</v>
-      </c>
-      <c r="U21">
-        <v>-1</v>
-      </c>
-      <c r="V21" t="s">
-        <v>116</v>
-      </c>
-      <c r="W21" t="s">
-        <v>116</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
       </c>
       <c r="AC21" t="s">
         <v>116</v>
@@ -7159,19 +7159,19 @@
         <v>116</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="s">
         <v>116</v>
@@ -7183,37 +7183,37 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>2</v>
       </c>
       <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q22">
         <v>-1</v>
       </c>
-      <c r="N22" t="s">
-        <v>116</v>
-      </c>
-      <c r="O22" t="s">
-        <v>116</v>
-      </c>
-      <c r="P22" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
       <c r="R22">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="s">
         <v>116</v>
@@ -7222,19 +7222,19 @@
         <v>116</v>
       </c>
       <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <v>-1</v>
       </c>
-      <c r="Y22">
-        <v>-2</v>
-      </c>
       <c r="Z22">
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="AB22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC22" t="s">
         <v>116</v>
@@ -7254,20 +7254,20 @@
         <v>116</v>
       </c>
       <c r="C23">
+        <v>-1</v>
+      </c>
+      <c r="D23">
         <v>-2</v>
       </c>
-      <c r="D23">
-        <v>-1</v>
-      </c>
       <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>-4</v>
+      </c>
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="F23">
-        <v>-3</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
       <c r="H23" t="s">
         <v>116</v>
       </c>
@@ -7278,58 +7278,58 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
       <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>116</v>
+      </c>
+      <c r="O23" t="s">
+        <v>116</v>
+      </c>
+      <c r="P23" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q23">
+        <v>-2</v>
+      </c>
+      <c r="R23">
         <v>-1</v>
       </c>
-      <c r="N23" t="s">
-        <v>116</v>
-      </c>
-      <c r="O23" t="s">
-        <v>116</v>
-      </c>
-      <c r="P23" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q23">
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
         <v>-1</v>
       </c>
-      <c r="R23">
-        <v>-2</v>
-      </c>
-      <c r="S23">
-        <v>3</v>
-      </c>
-      <c r="T23">
-        <v>-3</v>
-      </c>
       <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>116</v>
+      </c>
+      <c r="W23" t="s">
+        <v>116</v>
+      </c>
+      <c r="X23">
         <v>-1</v>
       </c>
-      <c r="V23" t="s">
-        <v>116</v>
-      </c>
-      <c r="W23" t="s">
-        <v>116</v>
-      </c>
-      <c r="X23">
-        <v>-2</v>
-      </c>
       <c r="Y23">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC23" t="s">
         <v>116</v>
@@ -7349,82 +7349,82 @@
         <v>116</v>
       </c>
       <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>-5</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q24">
         <v>-2</v>
       </c>
-      <c r="D24">
+      <c r="R24">
         <v>1</v>
       </c>
-      <c r="E24">
+      <c r="S24">
         <v>-2</v>
       </c>
-      <c r="F24">
-        <v>-4</v>
-      </c>
-      <c r="G24">
+      <c r="T24">
+        <v>-2</v>
+      </c>
+      <c r="U24">
+        <v>-1</v>
+      </c>
+      <c r="V24" t="s">
+        <v>116</v>
+      </c>
+      <c r="W24" t="s">
+        <v>116</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
         <v>1</v>
-      </c>
-      <c r="H24" t="s">
-        <v>116</v>
-      </c>
-      <c r="I24" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>-2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>116</v>
-      </c>
-      <c r="O24" t="s">
-        <v>116</v>
-      </c>
-      <c r="P24" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q24">
-        <v>-1</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>-4</v>
-      </c>
-      <c r="U24">
-        <v>-2</v>
-      </c>
-      <c r="V24" t="s">
-        <v>116</v>
-      </c>
-      <c r="W24" t="s">
-        <v>116</v>
-      </c>
-      <c r="X24">
-        <v>-2</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
       </c>
       <c r="Z24">
         <v>-2</v>
       </c>
       <c r="AA24">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC24" t="s">
         <v>116</v>
@@ -7444,19 +7444,19 @@
         <v>116</v>
       </c>
       <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
         <v>1</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H25" t="s">
         <v>116</v>
@@ -7468,58 +7468,58 @@
         <v>3</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>3</v>
       </c>
       <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>116</v>
+      </c>
+      <c r="O25" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
         <v>-1</v>
       </c>
-      <c r="N25" t="s">
-        <v>116</v>
-      </c>
-      <c r="O25" t="s">
-        <v>116</v>
-      </c>
-      <c r="P25" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q25">
+      <c r="U25">
+        <v>4</v>
+      </c>
+      <c r="V25" t="s">
+        <v>116</v>
+      </c>
+      <c r="W25" t="s">
+        <v>116</v>
+      </c>
+      <c r="X25">
         <v>2</v>
       </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <v>3</v>
-      </c>
-      <c r="T25">
-        <v>-3</v>
-      </c>
-      <c r="U25">
-        <v>3</v>
-      </c>
-      <c r="V25" t="s">
-        <v>116</v>
-      </c>
-      <c r="W25" t="s">
-        <v>116</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
       <c r="Y25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="AB25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC25" t="s">
         <v>116</v>
@@ -7641,64 +7641,64 @@
         <v>0</v>
       </c>
       <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>4</v>
       </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>5</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>6</v>
-      </c>
       <c r="T2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
         <v>1</v>
       </c>
-      <c r="W2">
-        <v>2</v>
-      </c>
       <c r="X2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -7721,55 +7721,55 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>2</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>3</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>1</v>
-      </c>
       <c r="W3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -7837,10 +7837,10 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -7852,13 +7852,13 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -7917,28 +7917,28 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T5">
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>4</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+      <c r="X5">
         <v>5</v>
       </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
-      <c r="V5">
-        <v>3</v>
-      </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5">
+      <c r="Y5">
         <v>4</v>
       </c>
-      <c r="Y5">
-        <v>3</v>
-      </c>
       <c r="Z5">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -7964,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -7997,11 +7997,11 @@
         <v>0</v>
       </c>
       <c r="S6">
+        <v>4</v>
+      </c>
+      <c r="T6">
         <v>3</v>
       </c>
-      <c r="T6">
-        <v>2</v>
-      </c>
       <c r="U6">
         <v>0</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -8047,13 +8047,13 @@
         <v>6</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -8121,11 +8121,11 @@
         <v>0</v>
       </c>
       <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -8166,10 +8166,10 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -8284,61 +8284,61 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>4</v>
+      </c>
+      <c r="T10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>6</v>
-      </c>
-      <c r="T10">
-        <v>3</v>
-      </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -8361,13 +8361,13 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -8391,34 +8391,34 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>1</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>5</v>
-      </c>
-      <c r="T11">
+      <c r="W11">
         <v>2</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
       <c r="X11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -8477,19 +8477,19 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T12">
         <v>0</v>
       </c>
       <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
         <v>1</v>
       </c>
-      <c r="V12">
-        <v>2</v>
-      </c>
       <c r="W12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>0</v>
@@ -8498,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -8515,53 +8515,53 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>4</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
         <v>0</v>
       </c>
@@ -8572,13 +8572,13 @@
         <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -8637,28 +8637,28 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -8717,28 +8717,28 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>1</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <v>2</v>
-      </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -8761,13 +8761,13 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -8797,28 +8797,28 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
         <v>1</v>
       </c>
-      <c r="W16">
-        <v>2</v>
-      </c>
       <c r="X16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -8841,11 +8841,11 @@
         <v>0</v>
       </c>
       <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
         <v>3</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
         <v>0</v>
       </c>
@@ -8877,19 +8877,19 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T17">
         <v>0</v>
       </c>
       <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
         <v>1</v>
       </c>
-      <c r="V17">
-        <v>2</v>
-      </c>
       <c r="W17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -9037,28 +9037,28 @@
         <v>0</v>
       </c>
       <c r="S19">
+        <v>11</v>
+      </c>
+      <c r="T19">
+        <v>8</v>
+      </c>
+      <c r="U19">
         <v>6</v>
       </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
       <c r="V19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X19">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z19">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -9117,28 +9117,28 @@
         <v>0</v>
       </c>
       <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
         <v>5</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -9235,70 +9235,70 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H22">
+        <v>44</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>13</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>97</v>
+      </c>
+      <c r="T22">
         <v>39</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>16</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>5</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>100</v>
-      </c>
-      <c r="T22">
-        <v>40</v>
-      </c>
       <c r="U22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V22">
         <v>16</v>
       </c>
       <c r="W22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y22">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Z22">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -9324,7 +9324,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.05492424242424242</v>
+        <v>0.04924242424242424</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9332,7 +9332,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.02892561983471074</v>
+        <v>0.03099173553719008</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9340,7 +9340,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.02114164904862579</v>
+        <v>0.0105708245243129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9348,7 +9348,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.06415929203539823</v>
+        <v>0.07964601769911504</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9356,7 +9356,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.01162790697674419</v>
+        <v>0.0186046511627907</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9388,7 +9388,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.03539823008849557</v>
+        <v>0.01106194690265487</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9396,7 +9396,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.04734848484848485</v>
+        <v>0.05681818181818182</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9404,7 +9404,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03099173553719008</v>
+        <v>0.02479338842975207</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9412,7 +9412,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01268498942917548</v>
+        <v>0.02536997885835095</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9420,7 +9420,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.06415929203539823</v>
+        <v>0.03539823008849557</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9428,7 +9428,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03488372093023256</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9436,7 +9436,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>0.05113636363636364</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9460,7 +9460,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>0.03982300884955752</v>
+        <v>0.1106194690265487</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9468,7 +9468,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>0.02325581395348837</v>
+        <v>0.01162790697674419</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9526,7 +9526,7 @@
         <v>134</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.001694915254237288</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9542,7 +9542,7 @@
         <v>136</v>
       </c>
       <c r="B7">
-        <v>0.07224334600760456</v>
+        <v>0.07604562737642585</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9550,7 +9550,7 @@
         <v>137</v>
       </c>
       <c r="B8">
-        <v>0.1029023746701847</v>
+        <v>0.1160949868073879</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9558,7 +9558,7 @@
         <v>138</v>
       </c>
       <c r="B9">
-        <v>0.003021148036253776</v>
+        <v>0.006042296072507553</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9566,7 +9566,7 @@
         <v>139</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.002645502645502645</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9574,7 +9574,7 @@
         <v>140</v>
       </c>
       <c r="B11">
-        <v>0.03389830508474576</v>
+        <v>0.02754237288135593</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9622,7 +9622,7 @@
         <v>146</v>
       </c>
       <c r="B17">
-        <v>0.01094091903719912</v>
+        <v>0.008752735229759299</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9638,7 +9638,7 @@
         <v>148</v>
       </c>
       <c r="B19">
-        <v>0.3460207612456747</v>
+        <v>0.3356401384083045</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9646,7 +9646,7 @@
         <v>149</v>
       </c>
       <c r="B20">
-        <v>0.1762114537444934</v>
+        <v>0.1718061674008811</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9654,7 +9654,7 @@
         <v>150</v>
       </c>
       <c r="B21">
-        <v>0.05851063829787234</v>
+        <v>0.06382978723404255</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9670,7 +9670,7 @@
         <v>152</v>
       </c>
       <c r="B23">
-        <v>0.101010101010101</v>
+        <v>0.09595959595959595</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -9678,7 +9678,7 @@
         <v>153</v>
       </c>
       <c r="B24">
-        <v>0.1148325358851675</v>
+        <v>0.1100478468899522</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -9686,7 +9686,7 @@
         <v>154</v>
       </c>
       <c r="B25">
-        <v>0.05031446540880503</v>
+        <v>0.06918238993710692</v>
       </c>
     </row>
   </sheetData>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -9825,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -9839,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -10007,7 +10007,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -10189,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -10245,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -10287,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -10348,16 +10348,16 @@
         <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10371,16 +10371,16 @@
         <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10394,16 +10394,16 @@
         <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10420,13 +10420,13 @@
         <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F5" t="s">
         <v>164</v>
       </c>
       <c r="G5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10437,19 +10437,19 @@
         <v>160</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -10460,19 +10460,19 @@
         <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
         <v>168</v>
       </c>
       <c r="E7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10483,19 +10483,19 @@
         <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" t="s">
         <v>162</v>
       </c>
-      <c r="E8" t="s">
-        <v>166</v>
-      </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G8" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -10509,16 +10509,16 @@
         <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -10529,19 +10529,19 @@
         <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F10" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -10552,19 +10552,19 @@
         <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10575,19 +10575,19 @@
         <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -10598,19 +10598,19 @@
         <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -10621,19 +10621,19 @@
         <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E14" t="s">
         <v>166</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -10644,19 +10644,19 @@
         <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -10667,16 +10667,16 @@
         <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G16" t="s">
         <v>160</v>
@@ -10690,19 +10690,19 @@
         <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G17" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -10713,19 +10713,19 @@
         <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -10736,19 +10736,19 @@
         <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
         <v>180</v>
-      </c>
-      <c r="G19" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10759,19 +10759,19 @@
         <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
         <v>163</v>
-      </c>
-      <c r="E20" t="s">
-        <v>168</v>
-      </c>
-      <c r="F20" t="s">
-        <v>173</v>
-      </c>
-      <c r="G20" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -10785,16 +10785,16 @@
         <v>166</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F21" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -10808,16 +10808,16 @@
         <v>161</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="F22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G22" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -10828,19 +10828,19 @@
         <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -10851,19 +10851,19 @@
         <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G24" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -10874,19 +10874,19 @@
         <v>160</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -10897,19 +10897,19 @@
         <v>160</v>
       </c>
       <c r="C26" t="s">
+        <v>166</v>
+      </c>
+      <c r="D26" t="s">
         <v>163</v>
       </c>
-      <c r="D26" t="s">
-        <v>171</v>
-      </c>
       <c r="E26" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -10920,19 +10920,19 @@
         <v>160</v>
       </c>
       <c r="C27" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E27" t="s">
         <v>161</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -10943,19 +10943,19 @@
         <v>160</v>
       </c>
       <c r="C28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" t="s">
         <v>174</v>
       </c>
-      <c r="D28" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" t="s">
-        <v>163</v>
-      </c>
       <c r="F28" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G28" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -10966,19 +10966,19 @@
         <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
         <v>161</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="F29" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G29" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -10989,19 +10989,19 @@
         <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D30" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -11012,19 +11012,19 @@
         <v>160</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D31" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F31" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G31" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -11035,19 +11035,19 @@
         <v>160</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D32" t="s">
+        <v>177</v>
+      </c>
+      <c r="E32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F32" t="s">
         <v>172</v>
       </c>
-      <c r="E32" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" t="s">
-        <v>173</v>
-      </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -11058,19 +11058,19 @@
         <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="G33" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -11081,16 +11081,16 @@
         <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G34" t="s">
         <v>163</v>
@@ -11110,13 +11110,13 @@
         <v>178</v>
       </c>
       <c r="E35" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F35" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G35" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -11130,16 +11130,16 @@
         <v>166</v>
       </c>
       <c r="D36" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" t="s">
+        <v>176</v>
+      </c>
+      <c r="F36" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" t="s">
         <v>163</v>
-      </c>
-      <c r="E36" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -11150,19 +11150,19 @@
         <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F37" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G37" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -11173,19 +11173,19 @@
         <v>160</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D38" t="s">
         <v>161</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F38" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="G38" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -11196,19 +11196,19 @@
         <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F39" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G39" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -11219,19 +11219,19 @@
         <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -11242,19 +11242,19 @@
         <v>160</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E41" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G41" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -11265,19 +11265,19 @@
         <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -11288,19 +11288,19 @@
         <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G43" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
